--- a/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,37</t>
+          <t>8,34; 14,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,66</t>
+          <t>5,89; 12,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 10,66</t>
+          <t>9,59; 15,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,23</t>
+          <t>11,24; 16,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 20,3</t>
+          <t>10,1; 15,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 12,83</t>
+          <t>10,52; 15,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 16,98</t>
+          <t>10,79; 14,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 17,7</t>
+          <t>9,42; 13,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,3</t>
+          <t>10,95; 14,81</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,29</t>
+          <t>7,87; 10,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,07</t>
+          <t>2,2; 5,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,42</t>
+          <t>3,63; 5,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,66</t>
+          <t>8,0; 10,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,4</t>
+          <t>2,79; 5,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 9,48</t>
+          <t>4,14; 6,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,13</t>
+          <t>8,31; 9,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 5,88</t>
+          <t>2,78; 5,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 9,18</t>
+          <t>4,13; 5,63</t>
         </is>
       </c>
     </row>
@@ -852,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,37 +863,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,24</t>
+          <t>3,51; 6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,61</t>
+          <t>4,06; 7,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,97</t>
+          <t>2,19; 5,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,05</t>
+          <t>3,2; 5,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,05</t>
+          <t>3,74; 7,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,54</t>
+          <t>2,07; 4,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,07</t>
+          <t>3,81; 5,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,4</t>
+          <t>4,29; 6,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,44</t>
+          <t>2,37; 4,27</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 7,71</t>
+          <t>7,42; 9,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 7,2</t>
+          <t>3,31; 6,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 8,46</t>
+          <t>4,72; 6,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,18</t>
+          <t>7,79; 9,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,9</t>
+          <t>4,23; 6,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,86</t>
+          <t>5,2; 6,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,64</t>
+          <t>7,96; 9,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 7,9</t>
+          <t>4,17; 6,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 8,36</t>
+          <t>5,11; 6,27</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el estómago</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9881</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20330</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26120</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17315</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50146</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36357</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27196</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>70476</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>62477</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7346; 12788</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13458; 28757</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20687; 32684</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14358; 20937</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39902; 60026</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28803; 43440</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23284; 32060</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58710; 83423</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53580; 72484</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>40528</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54657</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39912</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39681</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57643</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44058</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>80209</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>112301</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83971</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35668; 46439</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30944; 77804</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31296; 50474</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34555; 45342</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>38640; 76637</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35973; 54395</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73550; 88216</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>77709; 142917</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>71428; 97445</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26590</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12969</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8785</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22616</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12900</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16084</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49206</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25869</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5321; 9763</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18686; 36497</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8286; 19566</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6213; 11581</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16567; 31778</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8611; 20166</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13162; 20189</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38769; 61630</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18873; 33927</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>57709</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>101577</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>79001</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>65781</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>130406</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>93316</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>123490</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>231982</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>172317</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51414; 64785</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>69413; 130152</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>68754; 92266</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>58739; 72703</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>94029; 154981</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>81112; 107806</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>115209; 134315</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>180066; 271931</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>153986; 188944</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago</t>
+          <t>Consumo de medicamentos para el estómago (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago</t>
+          <t>Consumo de medicamentos para el estómago (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,52</t>
+          <t>8,18; 14,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,6</t>
+          <t>5,9; 12,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,39</t>
+          <t>11,39; 16,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,19</t>
+          <t>10,34; 15,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 14,86</t>
+          <t>10,74; 14,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,38</t>
+          <t>9,44; 13,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 10,24</t>
+          <t>6,98; 9,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,52</t>
+          <t>2,0; 5,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 10,5</t>
+          <t>7,58; 9,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,53</t>
+          <t>2,48; 5,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 9,96</t>
+          <t>7,53; 9,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,11</t>
+          <t>2,86; 5,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,44</t>
+          <t>3,54; 6,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,94</t>
+          <t>3,88; 8,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,96</t>
+          <t>2,95; 5,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,17</t>
+          <t>3,63; 6,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,84</t>
+          <t>3,55; 5,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,82</t>
+          <t>4,28; 6,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 9,35</t>
+          <t>6,71; 8,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,21</t>
+          <t>3,26; 6,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 9,65</t>
+          <t>7,29; 8,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,97</t>
+          <t>4,23; 6,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 9,28</t>
+          <t>7,22; 8,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,29</t>
+          <t>4,36; 6,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9881</t>
+          <t>8959</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17315</t>
+          <t>16718</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27196</t>
+          <t>25677</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7346; 12788</t>
+          <t>6753; 11768</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13458; 28757</t>
+          <t>13476; 28127</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14358; 20937</t>
+          <t>13830; 20089</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39902; 60026</t>
+          <t>40864; 61098</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23284; 32060</t>
+          <t>21916; 29909</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58710; 83423</t>
+          <t>58862; 83344</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40528</t>
+          <t>36745</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39681</t>
+          <t>38289</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>80209</t>
+          <t>75034</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35668; 46439</t>
+          <t>32220; 42018</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30944; 77804</t>
+          <t>28230; 75889</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34555; 45342</t>
+          <t>33697; 43610</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38640; 76637</t>
+          <t>34329; 74578</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73550; 88216</t>
+          <t>68245; 82546</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77709; 142917</t>
+          <t>79844; 144157</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7299</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8785</t>
+          <t>9286</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16084</t>
+          <t>17758</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5321; 9763</t>
+          <t>6215; 11475</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18686; 36497</t>
+          <t>17842; 36945</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6213; 11581</t>
+          <t>6731; 11947</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16567; 31778</t>
+          <t>16112; 30519</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13162; 20189</t>
+          <t>14310; 21565</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38769; 61630</t>
+          <t>38673; 62043</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>57709</t>
+          <t>54175</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>65781</t>
+          <t>64293</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>123490</t>
+          <t>118469</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51414; 64785</t>
+          <t>48309; 61010</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69413; 130152</t>
+          <t>68431; 128484</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>58739; 72703</t>
+          <t>57830; 71174</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94029; 154981</t>
+          <t>94115; 155176</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>115209; 134315</t>
+          <t>109291; 127373</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>180066; 271931</t>
+          <t>188491; 269493</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>10,85%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,91%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,1%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>13,77%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,69%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,28%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>12,59%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,31%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5,54; 11,46</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 15,15</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>8,18; 14,26</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 12,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 15,15</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>10,07; 15,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10,52; 15,87</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>11,39; 16,54</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,34; 15,46</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,52; 15,87</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>9,17; 13,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 14,81</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>10,74; 14,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,44; 13,37</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>10,95; 14,81</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>7,96%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8,62%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>8,28%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,18; 5,46</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 5,86</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>6,98; 9,1</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 5,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 5,86</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,19; 6,11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 6,27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,58; 9,81</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 5,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 6,27</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>4,01; 5,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 5,63</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>7,53; 9,11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 5,16</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 5,63</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,83%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,78%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>4,07%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4,4%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,08; 8,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 5,17</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>3,54; 6,54</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 8,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 5,17</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,82; 7,26</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 4,84</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,95; 5,24</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 6,88</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 4,84</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>4,55; 7,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 4,27</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3,55; 5,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 6,87</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 4,27</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7,53%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>8,1%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>7,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,23; 6,18</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 6,34</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>6,71; 8,48</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 6,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 6,34</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5,88; 7,61</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 6,92</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,29; 8,97</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 6,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,2; 6,92</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>5,32; 6,57</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 6,27</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>7,22; 8,42</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 6,24</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 6,27</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>105</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>162</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>179</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>21623</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26120</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>8959</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>20330</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>26120</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>54393</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36357</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>16718</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>50146</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>36357</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>76016</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>62477</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>25677</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>70476</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>62477</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>14142; 29258</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20687; 32684</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>6753; 11768</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13476; 28127</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20687; 32684</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>43554; 65741</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28803; 43440</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>13830; 20089</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>40864; 61098</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>28803; 43440</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>63061; 89661</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53580; 72484</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>21916; 29909</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>58862; 83344</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>53580; 72484</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>222</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>230</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>452</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>171</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>54237</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39912</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>36745</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>54657</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>39912</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>65002</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44058</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>38289</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>57643</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>44058</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>119239</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83971</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>75034</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>112301</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>83971</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>40985; 70351</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31296; 50474</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>32220; 42018</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>28230; 75889</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>31296; 50474</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>53307; 77671</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35973; 54395</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>33697; 43610</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>34329; 74578</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>35973; 54395</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>102677; 138743</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>71428; 97445</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>68245; 82546</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>79844; 144157</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>71428; 97445</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>96</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>29775</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12969</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>8471</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>26590</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>12969</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>27385</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12900</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>9286</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>22616</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>12900</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>57160</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25869</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>17758</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>49206</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>25869</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>20805; 40779</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8286; 19566</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6215; 11475</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>17842; 36945</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8286; 19566</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>18963; 35999</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8611; 20166</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>6731; 11947</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>16112; 30519</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8611; 20166</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>45714; 70590</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18873; 33927</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>14310; 21565</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>38673; 62043</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>18873; 33927</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>325</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>385</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>710</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>404</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>105635</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>79001</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>54175</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>101577</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>79001</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>146780</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>93316</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>64293</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>130406</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>93316</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>252415</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>172317</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>118469</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>231982</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>172317</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>86847; 126974</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>68754; 92266</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>48309; 61010</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>68431; 128484</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>68754; 92266</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>129329; 167470</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>81112; 107806</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>57830; 71174</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>94115; 155176</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>81112; 107806</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>226189; 279232</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>153986; 188944</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>109291; 127373</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>188491; 269493</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>153986; 188944</t>
         </is>
       </c>
     </row>
